--- a/src/04_SIMULATION/out/compare/benchmark/numer_results.xlsx
+++ b/src/04_SIMULATION/out/compare/benchmark/numer_results.xlsx
@@ -1,38 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josep\PycharmProjects\transit-centric-smart-mobility-system\src\04_SIMULATION\out\compare\benchmark\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joseph/PycharmProjects/transit-centric-smart-mobility-system/src/04_SIMULATION/out/compare/benchmark/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6270B836-4791-4EC3-8717-F1DB96D48C23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B12CD72-0284-D342-9013-219A52B996E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15980"/>
   </bookViews>
   <sheets>
     <sheet name="numer_results" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>method</t>
   </si>
@@ -76,10 +64,16 @@
     <t>std_h_pk</t>
   </si>
   <si>
+    <t>95_h_pk</t>
+  </si>
+  <si>
     <t>load_mean</t>
   </si>
   <si>
     <t>std_load</t>
+  </si>
+  <si>
+    <t>95_load</t>
   </si>
   <si>
     <t>tt_mean</t>
@@ -112,21 +106,17 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="0.0%"/>
-    <numFmt numFmtId="167" formatCode="0.0"/>
-  </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -164,28 +154,28 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FF9C5700"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -193,7 +183,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -201,14 +191,14 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -216,14 +206,14 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -231,7 +221,7 @@
     </font>
     <font>
       <i/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -239,14 +229,14 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -550,7 +540,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -593,16 +583,11 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="42" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="43">
+  <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -642,7 +627,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Percent" xfId="42" builtinId="5"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
@@ -956,16 +940,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1029,10 +1011,16 @@
       <c r="U1" t="s">
         <v>20</v>
       </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B2">
         <v>3.18</v>
@@ -1074,30 +1062,36 @@
         <v>3.83</v>
       </c>
       <c r="O2">
+        <v>11.91</v>
+      </c>
+      <c r="P2">
         <v>20.36</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>14.72</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
+        <v>50</v>
+      </c>
+      <c r="S2">
         <v>69.819999999999993</v>
       </c>
-      <c r="R2">
+      <c r="T2">
         <v>4.34</v>
       </c>
-      <c r="S2">
+      <c r="U2">
         <v>77.34</v>
       </c>
-      <c r="T2">
+      <c r="V2">
         <v>75.349999999999994</v>
       </c>
-      <c r="U2">
+      <c r="W2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B3">
         <v>2.81</v>
@@ -1139,30 +1133,36 @@
         <v>2.74</v>
       </c>
       <c r="O3">
+        <v>9.58</v>
+      </c>
+      <c r="P3">
         <v>19.559999999999999</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>11.58</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
+        <v>42.05</v>
+      </c>
+      <c r="S3">
         <v>69.62</v>
       </c>
-      <c r="R3">
+      <c r="T3">
         <v>4.0199999999999996</v>
       </c>
-      <c r="S3">
+      <c r="U3">
         <v>76.8</v>
       </c>
-      <c r="T3">
+      <c r="V3">
         <v>74.73</v>
       </c>
-      <c r="U3">
+      <c r="W3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B4">
         <v>2.85</v>
@@ -1204,217 +1204,105 @@
         <v>3.17</v>
       </c>
       <c r="O4">
+        <v>10.64</v>
+      </c>
+      <c r="P4">
         <v>20.09</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>12.05</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
+        <v>44</v>
+      </c>
+      <c r="S4">
         <v>69.2</v>
       </c>
-      <c r="R4">
+      <c r="T4">
         <v>4.21</v>
       </c>
-      <c r="S4">
+      <c r="U4">
         <v>76.540000000000006</v>
       </c>
-      <c r="T4">
+      <c r="V4">
         <v>74.55</v>
       </c>
-      <c r="U4">
+      <c r="W4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B5">
-        <v>2.72</v>
+        <v>2.73</v>
       </c>
       <c r="C5">
-        <v>3.5000000000000003E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="D5">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="E5">
-        <v>9.9</v>
+        <v>9.25</v>
       </c>
       <c r="F5">
-        <v>53.53</v>
+        <v>52.45</v>
       </c>
       <c r="G5">
-        <v>32.18</v>
+        <v>33.630000000000003</v>
       </c>
       <c r="H5">
-        <v>14.29</v>
+        <v>13.92</v>
       </c>
       <c r="I5">
         <v>1.86</v>
       </c>
       <c r="J5">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="K5">
-        <v>0.56000000000000005</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="L5">
-        <v>4.0000000000000001E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="M5">
-        <v>4.67</v>
+        <v>4.66</v>
       </c>
       <c r="N5">
-        <v>2.89</v>
+        <v>2.6</v>
       </c>
       <c r="O5">
-        <v>19.600000000000001</v>
+        <v>9.0399999999999991</v>
       </c>
       <c r="P5">
-        <v>11.19</v>
+        <v>20.39</v>
       </c>
       <c r="Q5">
-        <v>70.44</v>
+        <v>10.87</v>
       </c>
       <c r="R5">
-        <v>3.7</v>
+        <v>40.049999999999997</v>
       </c>
       <c r="S5">
-        <v>76.510000000000005</v>
+        <v>69.599999999999994</v>
       </c>
       <c r="T5">
-        <v>75.28</v>
+        <v>3.68</v>
       </c>
       <c r="U5">
-        <v>8.4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B6" s="1">
-        <f>(B3-$B$2)/$B$2</f>
-        <v>-0.11635220125786166</v>
-      </c>
-      <c r="H6">
-        <f>H3-$H$2</f>
-        <v>-4.7300000000000004</v>
-      </c>
-      <c r="I6" s="1">
-        <f>(I3-$I$2)/$I$2</f>
-        <v>-9.5454545454545528E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B7" s="1">
-        <f t="shared" ref="B7:B8" si="0">(B4-$B$2)/$B$2</f>
-        <v>-0.1037735849056604</v>
-      </c>
-      <c r="H7">
-        <f t="shared" ref="H7:H8" si="1">H4-$H$2</f>
-        <v>-4.7700000000000014</v>
-      </c>
-      <c r="I7" s="1">
-        <f t="shared" ref="I7:I8" si="2">(I4-$I$2)/$I$2</f>
-        <v>-9.5454545454545528E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B8" s="1">
-        <f t="shared" si="0"/>
-        <v>-0.14465408805031443</v>
-      </c>
-      <c r="H8">
-        <f t="shared" si="1"/>
-        <v>-5.5100000000000016</v>
-      </c>
-      <c r="I8" s="1">
-        <f t="shared" si="2"/>
-        <v>-0.15454545454545457</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B9">
-        <f>B3-$B$2</f>
-        <v>-0.37000000000000011</v>
-      </c>
-      <c r="H9" s="1">
-        <f>H6/$H$2</f>
-        <v>-0.2388888888888889</v>
-      </c>
-      <c r="I9">
-        <f>I3-$I$2</f>
-        <v>-0.21000000000000019</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B10">
-        <f t="shared" ref="B10:B11" si="3">B4-$B$2</f>
-        <v>-0.33000000000000007</v>
-      </c>
-      <c r="H10" s="1">
-        <f t="shared" ref="H10:H11" si="4">H7/$H$2</f>
-        <v>-0.24090909090909096</v>
-      </c>
-      <c r="I10">
-        <f t="shared" ref="I10:I11" si="5">I4-$I$2</f>
-        <v>-0.21000000000000019</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B11">
-        <f t="shared" si="3"/>
-        <v>-0.45999999999999996</v>
-      </c>
-      <c r="H11" s="1">
-        <f t="shared" si="4"/>
-        <v>-0.27828282828282835</v>
-      </c>
-      <c r="I11">
-        <f t="shared" si="5"/>
-        <v>-0.34000000000000008</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B12">
-        <f>B5-B3</f>
-        <v>-8.9999999999999858E-2</v>
-      </c>
-      <c r="I12">
-        <f>I5-I3</f>
-        <v>-0.12999999999999989</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B13" s="2">
-        <f>B12/B3</f>
-        <v>-3.2028469750889625E-2</v>
-      </c>
-      <c r="I13" s="2">
-        <f>I12/I3</f>
-        <v>-6.5326633165829096E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B14">
-        <f>B4-B3</f>
-        <v>4.0000000000000036E-2</v>
-      </c>
-      <c r="I14" s="3">
-        <f>I4-I3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B15" s="2">
-        <f>B14/B3</f>
-        <v>1.4234875444839871E-2</v>
-      </c>
-      <c r="I15" s="4">
-        <f>I14/I3</f>
-        <v>0</v>
+        <v>76.099999999999994</v>
+      </c>
+      <c r="V5">
+        <v>74.53</v>
+      </c>
+      <c r="W5">
+        <v>7.7</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/src/04_SIMULATION/out/compare/benchmark/numer_results.xlsx
+++ b/src/04_SIMULATION/out/compare/benchmark/numer_results.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,14 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joseph/PycharmProjects/transit-centric-smart-mobility-system/src/04_SIMULATION/out/compare/benchmark/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B12CD72-0284-D342-9013-219A52B996E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6FFE3C1-4592-C947-ABAE-DB9B0386BC5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15980"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="numer_results" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -106,7 +118,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -540,8 +556,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -584,52 +601,57 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+  <cellStyles count="43">
+    <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="24" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="32" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="36" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="40" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="21" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="25" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="29" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="33" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="37" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="41" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="26" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="30" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="34" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="38" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="42" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="19" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="23" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="27" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="31" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="35" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="39" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="8" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="12" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="14" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="17" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="7" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="3" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="4" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="5" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="6" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="10" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="13" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="9" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Note" xfId="16" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="11" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Title" xfId="2" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="18" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="15" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -940,10 +962,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:W15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -1028,7 +1052,7 @@
       <c r="C2">
         <v>0.125</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2">
         <v>3.12</v>
       </c>
       <c r="E2">
@@ -1099,7 +1123,7 @@
       <c r="C3">
         <v>6.4000000000000001E-2</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <v>2.7</v>
       </c>
       <c r="E3">
@@ -1170,7 +1194,7 @@
       <c r="C4">
         <v>0.05</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <v>2.86</v>
       </c>
       <c r="E4">
@@ -1241,7 +1265,7 @@
       <c r="C5">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <v>2.7</v>
       </c>
       <c r="E5">
@@ -1300,6 +1324,266 @@
       </c>
       <c r="W5">
         <v>7.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B6">
+        <f>B3-$B$2</f>
+        <v>-0.37000000000000011</v>
+      </c>
+      <c r="I6">
+        <f>I3-$I$2</f>
+        <v>-0.21000000000000019</v>
+      </c>
+      <c r="K6">
+        <f>K5-K3</f>
+        <v>-1.0000000000000009E-2</v>
+      </c>
+      <c r="N6">
+        <f>N3-N$2</f>
+        <v>-1.0899999999999999</v>
+      </c>
+      <c r="O6">
+        <f>O3-O$2</f>
+        <v>-2.33</v>
+      </c>
+      <c r="Q6">
+        <f>Q3-Q$2</f>
+        <v>-3.1400000000000006</v>
+      </c>
+      <c r="R6">
+        <f>R3-R$2</f>
+        <v>-7.9500000000000028</v>
+      </c>
+      <c r="U6">
+        <f>U3-$U$2</f>
+        <v>-0.54000000000000625</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <f t="shared" ref="B7:B8" si="0">B4-$B$2</f>
+        <v>-0.33000000000000007</v>
+      </c>
+      <c r="I7">
+        <f t="shared" ref="I7:I8" si="1">I4-$I$2</f>
+        <v>-0.21000000000000019</v>
+      </c>
+      <c r="K7" s="4">
+        <f>K6/K3</f>
+        <v>-1.785714285714287E-2</v>
+      </c>
+      <c r="N7">
+        <f t="shared" ref="N7:O7" si="2">N4-N$2</f>
+        <v>-0.66000000000000014</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="2"/>
+        <v>-1.2699999999999996</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" ref="Q7:R8" si="3">Q4-Q$2</f>
+        <v>-2.67</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="3"/>
+        <v>-6</v>
+      </c>
+      <c r="U7">
+        <f t="shared" ref="U7:U8" si="4">U4-$U$2</f>
+        <v>-0.79999999999999716</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>-0.45000000000000018</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="1"/>
+        <v>-0.34000000000000008</v>
+      </c>
+      <c r="N8">
+        <f t="shared" ref="N8:O8" si="5">N5-N$2</f>
+        <v>-1.23</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="5"/>
+        <v>-2.870000000000001</v>
+      </c>
+      <c r="Q8">
+        <f>Q5-Q$2</f>
+        <v>-3.8500000000000014</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="3"/>
+        <v>-9.9500000000000028</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="4"/>
+        <v>-1.2400000000000091</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B9" s="1">
+        <f>B6/$B$2</f>
+        <v>-0.11635220125786166</v>
+      </c>
+      <c r="I9" s="1">
+        <f>I6/$I$2</f>
+        <v>-9.5454545454545528E-2</v>
+      </c>
+      <c r="N9" s="1">
+        <f>N6/N$2</f>
+        <v>-0.28459530026109658</v>
+      </c>
+      <c r="O9" s="1">
+        <f>O6/O$2</f>
+        <v>-0.19563392107472713</v>
+      </c>
+      <c r="Q9" s="1">
+        <f>Q6/Q$2</f>
+        <v>-0.21331521739130438</v>
+      </c>
+      <c r="R9" s="1">
+        <f>R6/R$2</f>
+        <v>-0.15900000000000006</v>
+      </c>
+      <c r="U9" s="1">
+        <f>U6/$U$2</f>
+        <v>-6.9821567106284742E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B10" s="1">
+        <f t="shared" ref="B10:B11" si="6">B7/$B$2</f>
+        <v>-0.1037735849056604</v>
+      </c>
+      <c r="I10" s="1">
+        <f t="shared" ref="I10:I11" si="7">I7/$I$2</f>
+        <v>-9.5454545454545528E-2</v>
+      </c>
+      <c r="N10" s="1">
+        <f t="shared" ref="N10:O10" si="8">N7/N$2</f>
+        <v>-0.17232375979112274</v>
+      </c>
+      <c r="O10" s="1">
+        <f t="shared" si="8"/>
+        <v>-0.10663308144416453</v>
+      </c>
+      <c r="Q10" s="1">
+        <f t="shared" ref="Q10:R11" si="9">Q7/Q$2</f>
+        <v>-0.18138586956521738</v>
+      </c>
+      <c r="R10" s="1">
+        <f t="shared" si="9"/>
+        <v>-0.12</v>
+      </c>
+      <c r="U10" s="1">
+        <f t="shared" ref="U10" si="10">U7/$U$2</f>
+        <v>-1.0343935867597584E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B11" s="1">
+        <f t="shared" si="6"/>
+        <v>-0.1415094339622642</v>
+      </c>
+      <c r="I11" s="1">
+        <f t="shared" si="7"/>
+        <v>-0.15454545454545457</v>
+      </c>
+      <c r="N11" s="1">
+        <f t="shared" ref="N11:O11" si="11">N8/N$2</f>
+        <v>-0.32114882506527415</v>
+      </c>
+      <c r="O11" s="1">
+        <f t="shared" si="11"/>
+        <v>-0.24097397145256094</v>
+      </c>
+      <c r="Q11" s="1">
+        <f>Q8/Q$2</f>
+        <v>-0.26154891304347833</v>
+      </c>
+      <c r="R11" s="1">
+        <f t="shared" si="9"/>
+        <v>-0.19900000000000007</v>
+      </c>
+      <c r="U11" s="1">
+        <f>U8/$U$2</f>
+        <v>-1.6033100594776428E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B12">
+        <f>B5-B3</f>
+        <v>-8.0000000000000071E-2</v>
+      </c>
+      <c r="I12">
+        <f>I5-I4</f>
+        <v>-0.12999999999999989</v>
+      </c>
+      <c r="N12">
+        <f>N5-N3</f>
+        <v>-0.14000000000000012</v>
+      </c>
+      <c r="O12">
+        <f>O5-O3</f>
+        <v>-0.54000000000000092</v>
+      </c>
+      <c r="Q12">
+        <f>Q5-Q3</f>
+        <v>-0.71000000000000085</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B13" s="3">
+        <f>B12/B5</f>
+        <v>-2.9304029304029332E-2</v>
+      </c>
+      <c r="I13">
+        <f>I12/I4</f>
+        <v>-6.5326633165829096E-2</v>
+      </c>
+      <c r="N13" s="3">
+        <f>N12/N3</f>
+        <v>-5.1094890510948947E-2</v>
+      </c>
+      <c r="O13" s="3">
+        <f>O12/O3</f>
+        <v>-5.636743215031325E-2</v>
+      </c>
+      <c r="Q13" s="3">
+        <f>Q12/Q3</f>
+        <v>-6.1312607944732367E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="N14">
+        <f>N3-N4</f>
+        <v>-0.42999999999999972</v>
+      </c>
+      <c r="O14">
+        <f>O3-O4</f>
+        <v>-1.0600000000000005</v>
+      </c>
+      <c r="Q14">
+        <f>Q4-Q3</f>
+        <v>0.47000000000000064</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <f>-N14/N4</f>
+        <v>0.13564668769716079</v>
+      </c>
+      <c r="O15" s="3">
+        <f>-O14/O4</f>
+        <v>9.9624060150375976E-2</v>
+      </c>
+      <c r="Q15" s="1">
+        <f>Q14/Q4</f>
+        <v>3.900414937759341E-2</v>
       </c>
     </row>
   </sheetData>

--- a/src/04_SIMULATION/out/compare/benchmark/numer_results.xlsx
+++ b/src/04_SIMULATION/out/compare/benchmark/numer_results.xlsx
@@ -1,33 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joseph/PycharmProjects/transit-centric-smart-mobility-system/src/04_SIMULATION/out/compare/benchmark/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josep\PycharmProjects\transit-centric-smart-mobility-system\src\04_SIMULATION\out\compare\benchmark\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6FFE3C1-4592-C947-ABAE-DB9B0386BC5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{974A9D05-FC57-4C2E-9D49-5A28954C6940}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="numer_results" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -119,20 +107,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="0.0%"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
-  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -170,28 +154,28 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color rgb="FF9C5700"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -199,7 +183,7 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -207,14 +191,14 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -222,14 +206,14 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -237,7 +221,7 @@
     </font>
     <font>
       <i/>
-      <sz val="12"/>
+      <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -245,14 +229,14 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -556,9 +540,8 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -601,57 +584,52 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="43">
-    <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="24" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="32" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="36" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="40" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="21" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="25" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="29" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="33" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="37" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="41" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="26" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="30" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="34" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="38" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="42" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="19" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="23" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="27" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="31" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="35" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="39" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="8" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="12" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="14" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="17" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="7" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="3" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="4" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="5" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="6" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="10" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="13" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="9" builtinId="28" customBuiltin="1"/>
+  <cellStyles count="42">
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="16" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="11" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
-    <cellStyle name="Title" xfId="2" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="18" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="15" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -963,15 +941,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W15"/>
+  <dimension ref="A1:W5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U5" sqref="U5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1042,7 +1020,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -1052,7 +1030,7 @@
       <c r="C2">
         <v>0.125</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2">
         <v>3.12</v>
       </c>
       <c r="E2">
@@ -1113,7 +1091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -1123,7 +1101,7 @@
       <c r="C3">
         <v>6.4000000000000001E-2</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3">
         <v>2.7</v>
       </c>
       <c r="E3">
@@ -1184,7 +1162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -1194,7 +1172,7 @@
       <c r="C4">
         <v>0.05</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4">
         <v>2.86</v>
       </c>
       <c r="E4">
@@ -1255,338 +1233,78 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>26</v>
       </c>
       <c r="B5">
-        <v>2.73</v>
+        <v>2.72</v>
       </c>
       <c r="C5">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="D5" s="2">
-        <v>2.7</v>
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="D5">
+        <v>2.67</v>
       </c>
       <c r="E5">
-        <v>9.25</v>
+        <v>9.9</v>
       </c>
       <c r="F5">
-        <v>52.45</v>
+        <v>53.53</v>
       </c>
       <c r="G5">
-        <v>33.630000000000003</v>
+        <v>32.18</v>
       </c>
       <c r="H5">
-        <v>13.92</v>
+        <v>14.29</v>
       </c>
       <c r="I5">
         <v>1.86</v>
       </c>
       <c r="J5">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="K5">
-        <v>0.55000000000000004</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="L5">
-        <v>3.0000000000000001E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="M5">
-        <v>4.66</v>
+        <v>4.67</v>
       </c>
       <c r="N5">
-        <v>2.6</v>
+        <v>2.89</v>
       </c>
       <c r="O5">
-        <v>9.0399999999999991</v>
+        <v>9.68</v>
       </c>
       <c r="P5">
-        <v>20.39</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="Q5">
-        <v>10.87</v>
+        <v>11.19</v>
       </c>
       <c r="R5">
         <v>40.049999999999997</v>
       </c>
       <c r="S5">
-        <v>69.599999999999994</v>
+        <v>70.44</v>
       </c>
       <c r="T5">
-        <v>3.68</v>
+        <v>3.7</v>
       </c>
       <c r="U5">
-        <v>76.099999999999994</v>
+        <v>76.510000000000005</v>
       </c>
       <c r="V5">
-        <v>74.53</v>
+        <v>75.28</v>
       </c>
       <c r="W5">
-        <v>7.7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B6">
-        <f>B3-$B$2</f>
-        <v>-0.37000000000000011</v>
-      </c>
-      <c r="I6">
-        <f>I3-$I$2</f>
-        <v>-0.21000000000000019</v>
-      </c>
-      <c r="K6">
-        <f>K5-K3</f>
-        <v>-1.0000000000000009E-2</v>
-      </c>
-      <c r="N6">
-        <f>N3-N$2</f>
-        <v>-1.0899999999999999</v>
-      </c>
-      <c r="O6">
-        <f>O3-O$2</f>
-        <v>-2.33</v>
-      </c>
-      <c r="Q6">
-        <f>Q3-Q$2</f>
-        <v>-3.1400000000000006</v>
-      </c>
-      <c r="R6">
-        <f>R3-R$2</f>
-        <v>-7.9500000000000028</v>
-      </c>
-      <c r="U6">
-        <f>U3-$U$2</f>
-        <v>-0.54000000000000625</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B7">
-        <f t="shared" ref="B7:B8" si="0">B4-$B$2</f>
-        <v>-0.33000000000000007</v>
-      </c>
-      <c r="I7">
-        <f t="shared" ref="I7:I8" si="1">I4-$I$2</f>
-        <v>-0.21000000000000019</v>
-      </c>
-      <c r="K7" s="4">
-        <f>K6/K3</f>
-        <v>-1.785714285714287E-2</v>
-      </c>
-      <c r="N7">
-        <f t="shared" ref="N7:O7" si="2">N4-N$2</f>
-        <v>-0.66000000000000014</v>
-      </c>
-      <c r="O7">
-        <f t="shared" si="2"/>
-        <v>-1.2699999999999996</v>
-      </c>
-      <c r="Q7">
-        <f t="shared" ref="Q7:R8" si="3">Q4-Q$2</f>
-        <v>-2.67</v>
-      </c>
-      <c r="R7">
-        <f t="shared" si="3"/>
-        <v>-6</v>
-      </c>
-      <c r="U7">
-        <f t="shared" ref="U7:U8" si="4">U4-$U$2</f>
-        <v>-0.79999999999999716</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B8">
-        <f t="shared" si="0"/>
-        <v>-0.45000000000000018</v>
-      </c>
-      <c r="I8">
-        <f t="shared" si="1"/>
-        <v>-0.34000000000000008</v>
-      </c>
-      <c r="N8">
-        <f t="shared" ref="N8:O8" si="5">N5-N$2</f>
-        <v>-1.23</v>
-      </c>
-      <c r="O8">
-        <f t="shared" si="5"/>
-        <v>-2.870000000000001</v>
-      </c>
-      <c r="Q8">
-        <f>Q5-Q$2</f>
-        <v>-3.8500000000000014</v>
-      </c>
-      <c r="R8">
-        <f t="shared" si="3"/>
-        <v>-9.9500000000000028</v>
-      </c>
-      <c r="U8">
-        <f t="shared" si="4"/>
-        <v>-1.2400000000000091</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B9" s="1">
-        <f>B6/$B$2</f>
-        <v>-0.11635220125786166</v>
-      </c>
-      <c r="I9" s="1">
-        <f>I6/$I$2</f>
-        <v>-9.5454545454545528E-2</v>
-      </c>
-      <c r="N9" s="1">
-        <f>N6/N$2</f>
-        <v>-0.28459530026109658</v>
-      </c>
-      <c r="O9" s="1">
-        <f>O6/O$2</f>
-        <v>-0.19563392107472713</v>
-      </c>
-      <c r="Q9" s="1">
-        <f>Q6/Q$2</f>
-        <v>-0.21331521739130438</v>
-      </c>
-      <c r="R9" s="1">
-        <f>R6/R$2</f>
-        <v>-0.15900000000000006</v>
-      </c>
-      <c r="U9" s="1">
-        <f>U6/$U$2</f>
-        <v>-6.9821567106284742E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B10" s="1">
-        <f t="shared" ref="B10:B11" si="6">B7/$B$2</f>
-        <v>-0.1037735849056604</v>
-      </c>
-      <c r="I10" s="1">
-        <f t="shared" ref="I10:I11" si="7">I7/$I$2</f>
-        <v>-9.5454545454545528E-2</v>
-      </c>
-      <c r="N10" s="1">
-        <f t="shared" ref="N10:O10" si="8">N7/N$2</f>
-        <v>-0.17232375979112274</v>
-      </c>
-      <c r="O10" s="1">
-        <f t="shared" si="8"/>
-        <v>-0.10663308144416453</v>
-      </c>
-      <c r="Q10" s="1">
-        <f t="shared" ref="Q10:R11" si="9">Q7/Q$2</f>
-        <v>-0.18138586956521738</v>
-      </c>
-      <c r="R10" s="1">
-        <f t="shared" si="9"/>
-        <v>-0.12</v>
-      </c>
-      <c r="U10" s="1">
-        <f t="shared" ref="U10" si="10">U7/$U$2</f>
-        <v>-1.0343935867597584E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B11" s="1">
-        <f t="shared" si="6"/>
-        <v>-0.1415094339622642</v>
-      </c>
-      <c r="I11" s="1">
-        <f t="shared" si="7"/>
-        <v>-0.15454545454545457</v>
-      </c>
-      <c r="N11" s="1">
-        <f t="shared" ref="N11:O11" si="11">N8/N$2</f>
-        <v>-0.32114882506527415</v>
-      </c>
-      <c r="O11" s="1">
-        <f t="shared" si="11"/>
-        <v>-0.24097397145256094</v>
-      </c>
-      <c r="Q11" s="1">
-        <f>Q8/Q$2</f>
-        <v>-0.26154891304347833</v>
-      </c>
-      <c r="R11" s="1">
-        <f t="shared" si="9"/>
-        <v>-0.19900000000000007</v>
-      </c>
-      <c r="U11" s="1">
-        <f>U8/$U$2</f>
-        <v>-1.6033100594776428E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B12">
-        <f>B5-B3</f>
-        <v>-8.0000000000000071E-2</v>
-      </c>
-      <c r="I12">
-        <f>I5-I4</f>
-        <v>-0.12999999999999989</v>
-      </c>
-      <c r="N12">
-        <f>N5-N3</f>
-        <v>-0.14000000000000012</v>
-      </c>
-      <c r="O12">
-        <f>O5-O3</f>
-        <v>-0.54000000000000092</v>
-      </c>
-      <c r="Q12">
-        <f>Q5-Q3</f>
-        <v>-0.71000000000000085</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B13" s="3">
-        <f>B12/B5</f>
-        <v>-2.9304029304029332E-2</v>
-      </c>
-      <c r="I13">
-        <f>I12/I4</f>
-        <v>-6.5326633165829096E-2</v>
-      </c>
-      <c r="N13" s="3">
-        <f>N12/N3</f>
-        <v>-5.1094890510948947E-2</v>
-      </c>
-      <c r="O13" s="3">
-        <f>O12/O3</f>
-        <v>-5.636743215031325E-2</v>
-      </c>
-      <c r="Q13" s="3">
-        <f>Q12/Q3</f>
-        <v>-6.1312607944732367E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="N14">
-        <f>N3-N4</f>
-        <v>-0.42999999999999972</v>
-      </c>
-      <c r="O14">
-        <f>O3-O4</f>
-        <v>-1.0600000000000005</v>
-      </c>
-      <c r="Q14">
-        <f>Q4-Q3</f>
-        <v>0.47000000000000064</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="N15" s="3">
-        <f>-N14/N4</f>
-        <v>0.13564668769716079</v>
-      </c>
-      <c r="O15" s="3">
-        <f>-O14/O4</f>
-        <v>9.9624060150375976E-2</v>
-      </c>
-      <c r="Q15" s="1">
-        <f>Q14/Q4</f>
-        <v>3.900414937759341E-2</v>
+        <v>8.4</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>